--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T11:42:38+01:00</t>
+    <t>2024-03-08T13:21:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T13:21:42+01:00</t>
+    <t>2024-03-08T13:24:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T13:24:34+01:00</t>
+    <t>2024-03-08T13:29:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T13:29:06+01:00</t>
+    <t>2024-03-08T14:05:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A sample patient.</t>
+    <t>A sample patient profile.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -417,38 +417,65 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.extension:favoriteColor</t>
+  </si>
+  <si>
+    <t>favoriteColor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org//StructureDefinition/favorite-color}
+</t>
+  </si>
+  <si>
+    <t>Favorite Color Extension</t>
+  </si>
+  <si>
+    <t>Captures a person's favorite color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -566,17 +593,13 @@
     <t>Patient.name.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1886,7 +1909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1897,7 +1920,7 @@
   <cols>
     <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.59375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1905,7 +1928,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="48.09375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2886,7 +2909,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2905,17 +2928,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2952,16 +2973,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2979,7 +2998,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2999,43 +3018,41 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -3092,13 +3109,13 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -3115,14 +3132,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3135,23 +3152,25 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -3200,7 +3219,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
@@ -3212,19 +3231,19 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>76</v>
@@ -3232,10 +3251,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3246,38 +3265,34 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>76</v>
       </c>
@@ -3321,13 +3336,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -3336,16 +3351,16 @@
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>76</v>
@@ -3353,10 +3368,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3364,7 +3379,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3373,30 +3388,32 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3440,13 +3457,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -3455,16 +3472,16 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>76</v>
@@ -3472,10 +3489,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3483,7 +3500,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -3495,19 +3512,23 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3555,31 +3576,31 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>76</v>
@@ -3587,21 +3608,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3613,17 +3634,15 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3660,34 +3679,34 @@
         <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3704,46 +3723,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3752,61 +3769,61 @@
         <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3815,7 +3832,7 @@
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3823,10 +3840,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3843,25 +3860,25 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3871,7 +3888,7 @@
         <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>76</v>
@@ -3886,13 +3903,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3910,7 +3927,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3925,16 +3942,16 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3942,14 +3959,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3968,18 +3985,20 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -4027,7 +4046,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -4042,16 +4061,16 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -4059,21 +4078,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4085,16 +4104,16 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4144,13 +4163,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -4159,16 +4178,16 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -4176,14 +4195,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4202,7 +4221,7 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>217</v>
@@ -4210,7 +4229,9 @@
       <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -4259,7 +4280,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -4274,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4283,7 +4304,7 @@
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4291,10 +4312,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4317,13 +4338,13 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4374,7 +4395,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -4389,7 +4410,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4398,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4406,10 +4427,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4420,7 +4441,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -4432,7 +4453,7 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>230</v>
@@ -4441,9 +4462,7 @@
         <v>231</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4491,13 +4510,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -4506,16 +4525,16 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4523,10 +4542,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4537,7 +4556,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4549,19 +4568,17 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4610,13 +4627,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4625,16 +4642,16 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4642,10 +4659,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4656,10 +4673,10 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
@@ -4668,19 +4685,19 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4705,13 +4722,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4729,13 +4746,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4744,16 +4761,16 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4761,10 +4778,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4778,7 +4795,7 @@
         <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4787,19 +4804,19 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4824,13 +4841,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4848,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>74</v>
@@ -4863,27 +4880,27 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4900,25 +4917,25 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4967,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4982,27 +4999,27 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5010,34 +5027,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -5086,13 +5103,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -5101,16 +5118,16 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -5118,10 +5135,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5129,31 +5146,35 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5201,31 +5222,31 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5233,21 +5254,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5259,17 +5280,15 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5306,34 +5325,34 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5350,46 +5369,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5401,7 +5418,7 @@
         <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>76</v>
@@ -5413,46 +5430,46 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5461,7 +5478,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5469,10 +5486,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5489,7 +5506,7 @@
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>85</v>
@@ -5498,15 +5515,17 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5518,43 +5537,43 @@
         <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="U31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5569,7 +5588,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -5578,7 +5597,7 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5586,10 +5605,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5612,20 +5631,18 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5637,25 +5654,25 @@
         <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5688,7 +5705,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5719,7 +5736,7 @@
         <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5731,7 +5748,7 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>311</v>
@@ -5739,8 +5756,12 @@
       <c r="M33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5752,7 +5773,7 @@
         <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>76</v>
@@ -5788,13 +5809,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5803,7 +5824,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5827,14 +5848,14 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5846,13 +5867,13 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5867,49 +5888,49 @@
         <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="U34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5918,16 +5939,16 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5935,14 +5956,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5961,17 +5982,15 @@
         <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5984,7 +6003,7 @@
         <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>76</v>
@@ -6020,7 +6039,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -6035,7 +6054,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -6044,7 +6063,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -6052,14 +6071,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6078,15 +6097,17 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -6099,7 +6120,7 @@
         <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>76</v>
@@ -6193,7 +6214,7 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>343</v>
@@ -6214,43 +6235,43 @@
         <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -6265,16 +6286,16 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -6282,24 +6303,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6308,7 +6329,7 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>350</v>
@@ -6316,9 +6337,7 @@
       <c r="M38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6331,7 +6350,7 @@
         <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>76</v>
@@ -6410,13 +6429,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -6425,7 +6444,7 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>357</v>
@@ -6433,10 +6452,10 @@
       <c r="M39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>359</v>
       </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6448,43 +6467,43 @@
         <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -6499,7 +6518,7 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>234</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6539,20 +6558,20 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6565,7 +6584,7 @@
         <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>76</v>
@@ -6577,31 +6596,31 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6616,16 +6635,16 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6633,10 +6652,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6659,19 +6678,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6696,13 +6713,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6720,7 +6737,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6735,16 +6752,16 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6752,10 +6769,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6766,7 +6783,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6778,19 +6795,19 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6839,13 +6856,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6854,16 +6871,16 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6871,10 +6888,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6897,19 +6914,19 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6958,7 +6975,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6970,19 +6987,19 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6990,10 +7007,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7004,7 +7021,7 @@
         <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -7016,16 +7033,20 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>171</v>
+        <v>399</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -7073,25 +7094,25 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>173</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>158</v>
+        <v>404</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -7105,21 +7126,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7131,17 +7152,15 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7190,22 +7209,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7222,14 +7241,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7242,26 +7261,24 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>403</v>
+        <v>184</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7309,7 +7326,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -7324,7 +7341,7 @@
         <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7341,14 +7358,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7361,23 +7378,25 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7402,13 +7421,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7426,7 +7445,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -7438,19 +7457,19 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7458,10 +7477,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7472,7 +7491,7 @@
         <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7484,17 +7503,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7519,13 +7538,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7543,13 +7562,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -7558,16 +7577,16 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>76</v>
@@ -7575,10 +7594,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7589,7 +7608,7 @@
         <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7601,19 +7620,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7662,13 +7679,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -7677,16 +7694,16 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7694,10 +7711,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7708,7 +7725,7 @@
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7720,17 +7737,19 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>426</v>
+        <v>248</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7779,13 +7798,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7794,16 +7813,16 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7811,10 +7830,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7837,17 +7856,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>246</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7872,13 +7891,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -7896,7 +7915,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7911,16 +7930,16 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>76</v>
@@ -7928,10 +7947,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7954,17 +7973,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>433</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>253</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7989,13 +8008,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -8013,7 +8032,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -8022,22 +8041,22 @@
         <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>76</v>
@@ -8045,10 +8064,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8071,7 +8090,7 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>440</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>441</v>
@@ -8080,7 +8099,9 @@
         <v>442</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8128,7 +8149,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -8137,22 +8158,22 @@
         <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>76</v>
+        <v>446</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8160,10 +8181,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8174,7 +8195,7 @@
         <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8186,20 +8207,16 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8247,13 +8264,13 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -8262,10 +8279,10 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>450</v>
+        <v>166</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8293,7 +8310,7 @@
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8305,16 +8322,20 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>171</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8362,25 +8383,25 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8394,21 +8415,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8420,17 +8441,15 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8479,22 +8498,22 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -8511,14 +8530,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8531,26 +8550,24 @@
         <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>184</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -8598,7 +8615,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8613,7 +8630,7 @@
         <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -8630,45 +8647,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>364</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>457</v>
+        <v>146</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>458</v>
+        <v>147</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8693,13 +8710,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8717,31 +8734,31 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>459</v>
+        <v>127</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>76</v>
@@ -8749,10 +8766,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8760,7 +8777,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>84</v>
@@ -8775,19 +8792,19 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8812,13 +8829,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8836,10 +8853,10 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>84</v>
@@ -8851,16 +8868,16 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8868,21 +8885,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8894,18 +8911,20 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8953,13 +8972,13 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
@@ -8968,16 +8987,16 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -8985,21 +9004,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -9008,23 +9027,21 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O61" t="s" s="2">
         <v>482</v>
       </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -9072,13 +9089,13 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
@@ -9087,16 +9104,16 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>483</v>
+        <v>166</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -9104,10 +9121,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9118,31 +9135,31 @@
         <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -9191,13 +9208,13 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
@@ -9206,10 +9223,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>158</v>
+        <v>490</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -9223,10 +9240,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9237,28 +9254,32 @@
         <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>170</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>171</v>
+        <v>492</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9306,25 +9327,25 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>173</v>
+        <v>491</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>158</v>
+        <v>496</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9338,21 +9359,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -9364,17 +9385,15 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9423,22 +9442,22 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9455,14 +9474,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>401</v>
+        <v>143</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9475,26 +9494,24 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>402</v>
+        <v>183</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>403</v>
+        <v>184</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9542,7 +9559,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -9557,7 +9574,7 @@
         <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9574,44 +9591,46 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>494</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>409</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9659,31 +9678,31 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>498</v>
+        <v>76</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>76</v>
@@ -9691,10 +9710,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9717,15 +9736,17 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>501</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9750,13 +9771,13 @@
         <v>76</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>501</v>
+        <v>76</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>502</v>
+        <v>76</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>76</v>
@@ -9774,7 +9795,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>84</v>
@@ -9789,23 +9810,138 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>503</v>
+        <v>154</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>76</v>
+        <v>505</v>
       </c>
       <c r="AO67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO67">
+  <autoFilter ref="A1:AO68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9815,7 +9951,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org//StructureDefinition/my-patient</t>
+    <t>http://example.org/StructureDefinition/my-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T14:05:39+01:00</t>
+    <t>2024-03-08T14:42:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>favoriteColor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org//StructureDefinition/favorite-color}
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/favorite-color}
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="60.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T14:42:37+01:00</t>
+    <t>2024-03-08T14:46:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-patient</t>
+    <t>http://example.org/fhir/ImplementationGuide/cs6440/StructureDefinition/my-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T14:46:34+01:00</t>
+    <t>2024-03-08T15:26:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>favoriteColor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/favorite-color}
+    <t xml:space="preserve">Extension {http://example.org/fhir/ImplementationGuide/cs6440/StructureDefinition/favorite-color}
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.54296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/temp/pages/StructureDefinition-my-patient.xlsx
+++ b/temp/pages/StructureDefinition-my-patient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ImplementationGuide/cs6440/StructureDefinition/my-patient</t>
+    <t>http://example.org/StructureDefinition/my-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T15:26:18+01:00</t>
+    <t>2024-03-08T15:32:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>favoriteColor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/ImplementationGuide/cs6440/StructureDefinition/favorite-color}
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/favorite-color}
 </t>
   </si>
   <si>
@@ -1928,7 +1928,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="59.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
